--- a/branches/windows-scripts/CodeSystem-CIEL.xlsx
+++ b/branches/windows-scripts/CodeSystem-CIEL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T07:15:55+00:00</t>
+    <t>2023-06-26T18:10:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
